--- a/gene_ontology_analysis_miRNA/Upregulated Genes Analyzed/mouse_go_analysis_results_miRNA_upregulated.xlsx
+++ b/gene_ontology_analysis_miRNA/Upregulated Genes Analyzed/mouse_go_analysis_results_miRNA_upregulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/Upregulated Genes Analyzed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BAA9E-8B13-A94F-85AB-525E2E3678F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F14ACD-AEC0-F741-B5FF-D7C777A26398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="500" windowWidth="39060" windowHeight="26600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11780" yWindow="1860" windowWidth="39060" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biological Process" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="812">
   <si>
     <t>Rank</t>
   </si>
@@ -2452,6 +2452,12 @@
   </si>
   <si>
     <t>Membrane Transport Complexes</t>
+  </si>
+  <si>
+    <t>CDK19 --&gt; 0.89</t>
+  </si>
+  <si>
+    <t>CYP7A1 --&gt; 0.83</t>
   </si>
 </sst>
 </file>
@@ -2544,7 +2550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2553,7 +2559,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2565,13 +2571,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2878,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3762,7 +3765,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3790,12 +3793,14 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>810</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3823,7 +3828,9 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>811</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -19221,8 +19228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19559,7 +19566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -19957,9 +19964,9 @@
         <v>0</v>
       </c>
       <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -19990,9 +19997,9 @@
         <v>0</v>
       </c>
       <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">

--- a/gene_ontology_analysis_miRNA/Upregulated Genes Analyzed/mouse_go_analysis_results_miRNA_upregulated.xlsx
+++ b/gene_ontology_analysis_miRNA/Upregulated Genes Analyzed/mouse_go_analysis_results_miRNA_upregulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/Upregulated Genes Analyzed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F14ACD-AEC0-F741-B5FF-D7C777A26398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33B6D7-419D-094B-86A1-2802DB8FC353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="1860" windowWidth="39060" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="1060" windowWidth="39080" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biological Process" sheetId="1" r:id="rId1"/>
@@ -2881,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431:F431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19228,7 +19228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>

--- a/gene_ontology_analysis_miRNA/Upregulated Genes Analyzed/mouse_go_analysis_results_miRNA_upregulated.xlsx
+++ b/gene_ontology_analysis_miRNA/Upregulated Genes Analyzed/mouse_go_analysis_results_miRNA_upregulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/Upregulated Genes Analyzed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33B6D7-419D-094B-86A1-2802DB8FC353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE71B3E4-0418-464F-AFC0-E2D7335C86FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1060" windowWidth="39080" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="800" windowWidth="39100" windowHeight="26640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biological Process" sheetId="1" r:id="rId1"/>
@@ -2881,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:F431"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16081,8 +16081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19228,8 +19228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
